--- a/功能／接口设计.xlsx
+++ b/功能／接口设计.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/ScrumManagement/UI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/RaynorChan/Developing/GraduationAssesment/ScrumManagement/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19480" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="系统组件规划" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="147">
   <si>
     <t>通用组件</t>
   </si>
@@ -338,18 +338,12 @@
     <t>获取用户详细信息</t>
   </si>
   <si>
-    <t>名称</t>
-  </si>
-  <si>
     <t>x-access-token</t>
   </si>
   <si>
     <t>登录令牌，该令牌将会存储在客户端</t>
   </si>
   <si>
-    <t>HTTP头中的字段约定</t>
-  </si>
-  <si>
     <t>用户管理</t>
   </si>
   <si>
@@ -458,23 +452,32 @@
     <t>用户相关信息</t>
   </si>
   <si>
-    <t>/Login/UserInfo/:Token</t>
-  </si>
-  <si>
-    <t>根据登录的Token获取用户信息</t>
-  </si>
-  <si>
     <t>失败返回401</t>
   </si>
   <si>
     <t>失败返回404</t>
+  </si>
+  <si>
+    <t>说明：</t>
+  </si>
+  <si>
+    <t>1.接口中所有的ID均应为随机生成的GUID。</t>
+  </si>
+  <si>
+    <t>2.除了Login相关的接口，所有的接口请求时都需要带有x-access-token字段，服务端需要根据该字段中的值获取已经登录的用户的相关信息</t>
+  </si>
+  <si>
+    <t>/Login/UserInfo/</t>
+  </si>
+  <si>
+    <t>根据登录的Token获取用户信息(从x-access-token中获取当前登录的token)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -516,6 +519,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -545,7 +555,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -577,6 +587,112 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -586,7 +702,7 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
@@ -615,6 +731,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1074,10 +1225,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I88"/>
+  <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57:XFD88"/>
+    <sheetView tabSelected="1" zoomScale="160" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1093,174 +1244,166 @@
     <col min="9" max="9" width="10.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="22"/>
+    </row>
+    <row r="3" spans="1:9" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D4" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-    </row>
-    <row r="3" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="8" t="s">
+    </row>
+    <row r="10" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C10" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>125</v>
+        <v>67</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F11" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G11" s="9"/>
       <c r="H11" s="9"/>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>123</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>69</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="9"/>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
@@ -1270,16 +1413,16 @@
       <c r="A14" s="9"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G14" s="9"/>
       <c r="H14" s="9"/>
@@ -1289,52 +1432,56 @@
       <c r="A15" s="9"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G15" s="9"/>
       <c r="H15" s="9"/>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B16" s="8" t="s">
+    <row r="16" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C17" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
@@ -1342,10 +1489,10 @@
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G18" s="9"/>
       <c r="H18" s="9"/>
@@ -1355,9 +1502,13 @@
       <c r="A19" s="9"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G19" s="9"/>
       <c r="H19" s="9"/>
       <c r="I19" s="9"/>
@@ -1366,7 +1517,7 @@
       <c r="A20" s="9"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
+      <c r="D20" s="10"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
@@ -1384,37 +1535,33 @@
       <c r="H21" s="9"/>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B22" s="8" t="s">
+    <row r="22" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="9"/>
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C22" s="8" t="s">
+      <c r="C23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
@@ -1422,10 +1569,10 @@
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G24" s="9"/>
       <c r="H24" s="9"/>
@@ -1435,9 +1582,13 @@
       <c r="A25" s="9"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G25" s="9"/>
       <c r="H25" s="9"/>
       <c r="I25" s="9"/>
@@ -1446,44 +1597,40 @@
       <c r="A26" s="9"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
+      <c r="D26" s="10"/>
       <c r="E26" s="9"/>
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="9"/>
       <c r="I26" s="9"/>
     </row>
-    <row r="27" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="8" t="s">
+    <row r="27" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B28" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C27" s="8" t="s">
+      <c r="C28" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="8"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="8"/>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9"/>
@@ -1491,10 +1638,10 @@
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G29" s="9"/>
       <c r="H29" s="9"/>
@@ -1504,9 +1651,13 @@
       <c r="A30" s="9"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="G30" s="9"/>
       <c r="H30" s="9"/>
       <c r="I30" s="9"/>
@@ -1515,46 +1666,42 @@
       <c r="A31" s="9"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
-    <row r="32" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="8" t="s">
-        <v>131</v>
-      </c>
-      <c r="B32" s="8" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B33" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="C33" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8" t="s">
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
         <v>97</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9"/>
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="8"/>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9"/>
@@ -1562,10 +1709,10 @@
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
@@ -1575,12 +1722,12 @@
       <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="10"/>
+      <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G35" s="9"/>
       <c r="H35" s="9"/>
@@ -1590,44 +1737,44 @@
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>63</v>
+      </c>
       <c r="G36" s="9"/>
       <c r="H36" s="9"/>
       <c r="I36" s="9"/>
     </row>
-    <row r="37" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B37" s="8" t="s">
+    <row r="37" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9"/>
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="8" t="s">
+      <c r="C38" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-    </row>
-    <row r="38" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
+      <c r="D38" s="8"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="8"/>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9"/>
@@ -1635,40 +1782,40 @@
       <c r="C39" s="9"/>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>128</v>
+        <v>67</v>
       </c>
       <c r="G39" s="9"/>
       <c r="H39" s="9"/>
       <c r="I39" s="9"/>
     </row>
-    <row r="40" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9"/>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="10"/>
+      <c r="D40" s="9"/>
       <c r="E40" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F40" s="10" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>126</v>
       </c>
       <c r="G40" s="9"/>
       <c r="H40" s="9"/>
       <c r="I40" s="9"/>
     </row>
-    <row r="41" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
+      <c r="D41" s="10"/>
       <c r="E41" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>72</v>
+        <v>74</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="G41" s="9"/>
       <c r="H41" s="9"/>
@@ -1680,10 +1827,10 @@
       <c r="C42" s="9"/>
       <c r="D42" s="9"/>
       <c r="E42" s="9" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F42" s="9" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G42" s="9"/>
       <c r="H42" s="9"/>
@@ -1695,151 +1842,151 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
       <c r="E43" s="9" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F43" s="9" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G43" s="9"/>
       <c r="H43" s="9"/>
       <c r="I43" s="9"/>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A45" s="6" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="B46" s="8" t="s">
+    <row r="44" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B47" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="C46" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-    </row>
-    <row r="47" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
+      <c r="C47" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="8"/>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="9"/>
       <c r="B48" s="9"/>
       <c r="C48" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="E48" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="F48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="G48" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
     </row>
-    <row r="49" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="B49" s="8" t="s">
+    <row r="49" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="9"/>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="G49" s="9"/>
+      <c r="H49" s="9"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="8"/>
-      <c r="I49" s="8"/>
-    </row>
-    <row r="50" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="9"/>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F50" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="9"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="C50" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="8"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="9"/>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="10"/>
       <c r="E51" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="G51" s="9"/>
+        <v>67</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>141</v>
+      </c>
       <c r="H51" s="9"/>
       <c r="I51" s="9"/>
     </row>
-    <row r="52" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" s="3" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="9"/>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="10"/>
       <c r="E52" s="9" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9"/>
       <c r="I52" s="9"/>
     </row>
-    <row r="53" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="10"/>
       <c r="E53" s="9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G53" s="9"/>
       <c r="H53" s="9"/>
@@ -1851,10 +1998,10 @@
       <c r="C54" s="9"/>
       <c r="D54" s="10"/>
       <c r="E54" s="9" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
@@ -1866,92 +2013,92 @@
       <c r="C55" s="9"/>
       <c r="D55" s="10"/>
       <c r="E55" s="9" t="s">
-        <v>75</v>
+        <v>128</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="G55" s="9"/>
       <c r="H55" s="9"/>
       <c r="I55" s="9"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A57" s="6" t="s">
+    <row r="56" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="9"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="6" t="s">
+      <c r="B58" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="7" t="s">
+    <row r="59" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B58" s="7" t="s">
+      <c r="B59" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C58" s="7" t="s">
+      <c r="C59" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D59" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E59" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F59" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G59" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H58" s="7" t="s">
+      <c r="H59" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I58" s="7" t="s">
+      <c r="I59" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="8" t="s">
+    <row r="60" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B60" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C60" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="8"/>
-      <c r="I59" s="8"/>
-    </row>
-    <row r="60" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="9"/>
-      <c r="B60" s="9"/>
-      <c r="C60" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="E60" s="9"/>
-      <c r="F60" s="9"/>
-      <c r="G60" s="9"/>
-      <c r="H60" s="9"/>
-      <c r="I60" s="9"/>
+      <c r="D60" s="8"/>
+      <c r="E60" s="8"/>
+      <c r="F60" s="8"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="8"/>
+      <c r="I60" s="8"/>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="9"/>
       <c r="B61" s="9"/>
       <c r="C61" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D61" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E61" s="9"/>
       <c r="F61" s="9"/>
@@ -1963,10 +2110,10 @@
       <c r="A62" s="9"/>
       <c r="B62" s="9"/>
       <c r="C62" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
@@ -1974,37 +2121,37 @@
       <c r="H62" s="9"/>
       <c r="I62" s="9"/>
     </row>
-    <row r="63" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="8" t="s">
+    <row r="63" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="9"/>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D63" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="C64" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="8"/>
-      <c r="I63" s="8"/>
-    </row>
-    <row r="64" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="9"/>
-      <c r="B64" s="9"/>
-      <c r="C64" s="9"/>
-      <c r="D64" s="9"/>
-      <c r="E64" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G64" s="9"/>
-      <c r="H64" s="9"/>
-      <c r="I64" s="9"/>
+      <c r="D64" s="8"/>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="8"/>
+      <c r="I64" s="8"/>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="9"/>
@@ -2012,10 +2159,10 @@
       <c r="C65" s="9"/>
       <c r="D65" s="9"/>
       <c r="E65" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F65" s="9" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G65" s="9"/>
       <c r="H65" s="9"/>
@@ -2027,46 +2174,46 @@
       <c r="C66" s="9"/>
       <c r="D66" s="9"/>
       <c r="E66" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="F66" s="9" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G66" s="9"/>
       <c r="H66" s="9"/>
       <c r="I66" s="9"/>
     </row>
-    <row r="67" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="8" t="s">
+    <row r="67" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="9"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+    </row>
+    <row r="68" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B68" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="8" t="s">
+      <c r="C68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="8"/>
-      <c r="I67" s="8"/>
-    </row>
-    <row r="68" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F68" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G68" s="9"/>
-      <c r="H68" s="9"/>
-      <c r="I68" s="9"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="8"/>
+      <c r="I68" s="8"/>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A69" s="9"/>
@@ -2074,48 +2221,48 @@
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
       <c r="E69" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F69" s="9" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
     </row>
-    <row r="70" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="9"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+    </row>
+    <row r="71" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B71" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C70" s="8" t="s">
+      <c r="C71" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8" t="s">
+      <c r="D71" s="8"/>
+      <c r="E71" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="F70" s="8"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="9"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="9"/>
-      <c r="D71" s="9"/>
-      <c r="E71" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="F71" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="G71" s="9"/>
-      <c r="H71" s="9"/>
-      <c r="I71" s="9"/>
+      <c r="F71" s="8"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="8"/>
+      <c r="I71" s="8"/>
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="9"/>
@@ -2123,43 +2270,43 @@
       <c r="C72" s="9"/>
       <c r="D72" s="9"/>
       <c r="E72" s="9" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="F72" s="9" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9"/>
       <c r="I72" s="9"/>
     </row>
-    <row r="73" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A73" s="9"/>
-      <c r="B73" s="10"/>
+      <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="10"/>
+      <c r="D73" s="9"/>
       <c r="E73" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+    </row>
+    <row r="74" spans="1:9" s="3" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="9"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="10"/>
+      <c r="E74" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="F73" s="10" t="s">
+      <c r="F74" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="G73" s="9"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="9"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A74" s="9"/>
-      <c r="B74" s="9"/>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="F74" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
+      <c r="H74" s="10"/>
       <c r="I74" s="9"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -2168,46 +2315,46 @@
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
       <c r="E75" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F75" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="8" t="s">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+    </row>
+    <row r="77" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B77" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C77" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="8"/>
-      <c r="I76" s="8"/>
-    </row>
-    <row r="77" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="9"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="9"/>
-      <c r="D77" s="10"/>
-      <c r="E77" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G77" s="9"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="9"/>
+      <c r="D77" s="8"/>
+      <c r="E77" s="8"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="8"/>
+      <c r="I77" s="8"/>
     </row>
     <row r="78" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A78" s="9"/>
@@ -2215,87 +2362,87 @@
       <c r="C78" s="9"/>
       <c r="D78" s="10"/>
       <c r="E78" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="10"/>
       <c r="I78" s="9"/>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A81" s="6" t="s">
+    <row r="79" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="9"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="10"/>
+      <c r="E79" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F79" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G79" s="9"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="9"/>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="82" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
+    <row r="83" spans="1:9" s="5" customFormat="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B82" s="7" t="s">
+      <c r="B83" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="C82" s="7" t="s">
+      <c r="C83" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="D82" s="7" t="s">
+      <c r="D83" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="E82" s="7" t="s">
+      <c r="E83" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F82" s="7" t="s">
+      <c r="F83" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G82" s="7" t="s">
+      <c r="G83" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="H82" s="7" t="s">
+      <c r="H83" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="I82" s="7" t="s">
+      <c r="I83" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="83" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="8" t="s">
+    <row r="84" spans="1:9" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B83" s="8" t="s">
+      <c r="B84" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-    </row>
-    <row r="84" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="9"/>
-      <c r="B84" s="9"/>
-      <c r="C84" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D84" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="E84" s="9"/>
-      <c r="F84" s="9"/>
-      <c r="G84" s="9"/>
-      <c r="H84" s="9"/>
-      <c r="I84" s="9"/>
+      <c r="C84" s="8"/>
+      <c r="D84" s="8"/>
+      <c r="E84" s="8"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
     </row>
     <row r="85" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
       <c r="B85" s="9"/>
       <c r="C85" s="9" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>47</v>
+        <v>55</v>
       </c>
       <c r="E85" s="9"/>
       <c r="F85" s="9"/>
@@ -2307,10 +2454,10 @@
       <c r="A86" s="9"/>
       <c r="B86" s="9"/>
       <c r="C86" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E86" s="9"/>
       <c r="F86" s="9"/>
@@ -2322,10 +2469,10 @@
       <c r="A87" s="9"/>
       <c r="B87" s="9"/>
       <c r="C87" s="9" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D87" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E87" s="9"/>
       <c r="F87" s="9"/>
@@ -2337,10 +2484,10 @@
       <c r="A88" s="9"/>
       <c r="B88" s="9"/>
       <c r="C88" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E88" s="9"/>
       <c r="F88" s="9"/>
@@ -2348,7 +2495,87 @@
       <c r="H88" s="9"/>
       <c r="I88" s="9"/>
     </row>
+    <row r="89" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="24"/>
+      <c r="B93" s="24"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24"/>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+    </row>
+    <row r="94" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="95" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="97" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="98" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="26"/>
+      <c r="B98" s="26"/>
+      <c r="C98" s="26"/>
+      <c r="D98" s="26"/>
+      <c r="E98" s="26"/>
+      <c r="G98" s="26"/>
+      <c r="H98" s="26"/>
+      <c r="I98" s="26"/>
+    </row>
+    <row r="99" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="26"/>
+      <c r="B99" s="26"/>
+      <c r="C99" s="26"/>
+      <c r="D99" s="26"/>
+      <c r="E99" s="26"/>
+      <c r="G99" s="26"/>
+      <c r="H99" s="26"/>
+      <c r="I99" s="26"/>
+    </row>
+    <row r="100" spans="1:9" s="25" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17"/>
+      <c r="I101" s="17"/>
+    </row>
   </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="H1:H3"/>
+    <mergeCell ref="I1:I3"/>
+    <mergeCell ref="A98:A99"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="B1:B3"/>
+    <mergeCell ref="C1:C3"/>
+    <mergeCell ref="D1:D3"/>
+    <mergeCell ref="E1:E3"/>
+    <mergeCell ref="F1:F3"/>
+    <mergeCell ref="G1:G3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
@@ -2370,83 +2597,83 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
